--- a/test/employees.xlsx
+++ b/test/employees.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,19 +471,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adam Singh</t>
+          <t>Lisa Shaffer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>118976.07</v>
+        <v>98541.66</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44866</v>
+        <v>44458</v>
       </c>
     </row>
     <row r="3">
@@ -492,19 +492,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph Cooper</t>
+          <t>John May</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Administration</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56241.74</v>
+        <v>39456.76</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>43949</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="4">
@@ -513,7 +513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zachary Madden</t>
+          <t>Richard Vasquez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -522,10 +522,157 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>116451.67</v>
+        <v>107141.9</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44587</v>
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pamela Johnson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>118674.54</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nicole Christensen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>43316.78</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rachel Douglas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>118485.84</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Judith Alvarez</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>47128.48</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ashley Macdonald</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>92085.08</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Daniel Banks</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>71909.7</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Timothy Hart</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>44218.38</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>44003</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,20 +718,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56241.74</v>
+        <v>118580.19</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116451.67</v>
+        <v>98541.66</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -593,11 +740,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118976.07</v>
+        <v>44218.38</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -606,13 +753,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79561.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>54118.32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Export Timestamp</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-11-01 00:34:04</t>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-11-01 00:46:10</t>
         </is>
       </c>
     </row>
